--- a/01_Input/00_CO Validation/Iraq - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Iraq - Energy Projects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://undp.sharepoint.com/sites/UNDPSustainableEnergyHub/Shared Documents/General/0. CURRENT FOLDER - Sustainable Energy Hub/05. Accounting for Progress to 500M/7. CO Validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="526" documentId="11_13400C8A471826D5940B628CA6FCA9A8E4E8ED3F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7899A3FB-9291-4FED-AA64-D74856A8A53B}"/>
+  <xr:revisionPtr revIDLastSave="553" documentId="11_13400C8A471826D5940B628CA6FCA9A8E4E8ED3F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78F79966-FC3D-4E1D-A748-76A7B1698F4E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects (3)" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="124">
   <si>
     <t>Project ID</t>
   </si>
@@ -77,7 +77,7 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Comments</t>
+    <t>Tag</t>
   </si>
   <si>
     <t>SEH Taxonomy</t>
@@ -239,6 +239,9 @@
     <t>Funding Facility for Stabilization</t>
   </si>
   <si>
+    <t>https://open.undp.org/projects/00089459</t>
+  </si>
+  <si>
     <t>Nr of people with access to electricity</t>
   </si>
   <si>
@@ -282,6 +285,9 @@
   </si>
   <si>
     <t>MW</t>
+  </si>
+  <si>
+    <t>Comments</t>
   </si>
   <si>
     <t>1500 (50 % women)</t>
@@ -426,7 +432,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,6 +472,13 @@
       <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -536,7 +549,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -681,6 +694,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -689,7 +726,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -829,10 +866,166 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -853,32 +1046,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -937,18 +1115,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -961,61 +1127,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1323,11 +1435,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF5B37D-49A5-4ADB-B5FC-F6F25C4D7831}">
-  <dimension ref="A1:X30"/>
+  <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="I21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -1343,87 +1455,85 @@
     <col min="8" max="8" width="28.140625" customWidth="1"/>
     <col min="9" max="9" width="32.7109375" customWidth="1"/>
     <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="51.5703125" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" customWidth="1"/>
-    <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="45.75">
-      <c r="A1" s="105" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="105" t="s">
+    <row r="1" spans="1:23" ht="45.75">
+      <c r="A1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="105" t="s">
+      <c r="D1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="106" t="s">
+      <c r="E1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="105" t="s">
+      <c r="F1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="105" t="s">
+      <c r="G1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="105" t="s">
+      <c r="H1" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="105" t="s">
+      <c r="I1" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="107" t="s">
+      <c r="J1" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="107" t="s">
+      <c r="K1" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="107" t="s">
+      <c r="L1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="107" t="s">
+      <c r="M1" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="107" t="s">
+      <c r="N1" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="107" t="s">
+      <c r="O1" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="107" t="s">
+      <c r="P1" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="107" t="s">
+      <c r="Q1" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="107" t="s">
+      <c r="R1" s="63" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="4"/>
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-    </row>
-    <row r="2" spans="1:24" ht="60.75">
-      <c r="A2" s="35">
+    </row>
+    <row r="2" spans="1:23" ht="45.75">
+      <c r="A2" s="14">
         <v>122659</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="109">
+      <c r="D2" s="77">
         <v>149000</v>
       </c>
-      <c r="E2" s="110" t="s">
+      <c r="E2" s="64" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -1441,36 +1551,35 @@
       <c r="J2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="111">
+      <c r="K2" s="65">
         <v>0.5</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>24</v>
       </c>
       <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
+      <c r="N2" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="O2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="9" t="s">
         <v>26</v>
       </c>
+      <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-    </row>
-    <row r="3" spans="1:24" ht="60.75">
-      <c r="A3" s="115">
+    </row>
+    <row r="3" spans="1:23" ht="45.75">
+      <c r="A3" s="80">
         <v>122627</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="121"/>
-      <c r="D3" s="122">
+      <c r="C3" s="83"/>
+      <c r="D3" s="82">
         <v>922000</v>
       </c>
-      <c r="E3" s="112" t="s">
+      <c r="E3" s="75" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="9" t="s">
@@ -1482,34 +1591,33 @@
       <c r="H3" s="9">
         <v>1500</v>
       </c>
-      <c r="I3" s="121" t="s">
+      <c r="I3" s="72" t="s">
         <v>29</v>
       </c>
       <c r="J3" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="111">
+      <c r="K3" s="65">
         <v>0.5</v>
       </c>
-      <c r="L3" s="121"/>
+      <c r="L3" s="72"/>
       <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
+      <c r="N3" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="O3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="9" t="s">
         <v>26</v>
       </c>
+      <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-    </row>
-    <row r="4" spans="1:24" ht="121.5">
-      <c r="A4" s="115"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="112" t="s">
+    </row>
+    <row r="4" spans="1:23" ht="121.5">
+      <c r="A4" s="85"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="75" t="s">
         <v>31</v>
       </c>
       <c r="F4" s="9" t="s">
@@ -1521,38 +1629,37 @@
       <c r="H4" s="9">
         <v>1000</v>
       </c>
-      <c r="I4" s="121"/>
+      <c r="I4" s="72"/>
       <c r="J4" s="35"/>
-      <c r="K4" s="111">
+      <c r="K4" s="65">
         <v>0.5</v>
       </c>
-      <c r="L4" s="121"/>
+      <c r="L4" s="72"/>
       <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
+      <c r="N4" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="O4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-    </row>
-    <row r="5" spans="1:24" ht="90" customHeight="1">
-      <c r="A5" s="35">
+    </row>
+    <row r="5" spans="1:23" ht="90" customHeight="1">
+      <c r="A5" s="91">
         <v>6487</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="122">
+      <c r="D5" s="82">
         <v>3092009</v>
       </c>
-      <c r="E5" s="112" t="s">
+      <c r="E5" s="75" t="s">
         <v>36</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -1568,30 +1675,29 @@
       <c r="J5" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="111">
+      <c r="K5" s="65">
         <v>0.5</v>
       </c>
       <c r="L5" s="35" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
+      <c r="N5" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="O5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" s="9" t="s">
         <v>26</v>
       </c>
+      <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-    </row>
-    <row r="6" spans="1:24" ht="45" customHeight="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="112" t="s">
+    </row>
+    <row r="6" spans="1:23" ht="45" customHeight="1">
+      <c r="A6" s="92"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="75" t="s">
         <v>40</v>
       </c>
       <c r="F6" s="9" t="s">
@@ -1600,7 +1706,7 @@
       <c r="G6" s="9">
         <v>0</v>
       </c>
-      <c r="H6" s="113">
+      <c r="H6" s="67">
         <v>531628</v>
       </c>
       <c r="I6" s="9"/>
@@ -1608,23 +1714,22 @@
       <c r="K6" s="9"/>
       <c r="L6" s="35"/>
       <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
+      <c r="N6" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="O6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P6" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-    </row>
-    <row r="7" spans="1:24" s="51" customFormat="1" ht="90" customHeight="1">
-      <c r="A7" s="35"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="112" t="s">
+    </row>
+    <row r="7" spans="1:23" s="51" customFormat="1" ht="90" customHeight="1">
+      <c r="A7" s="92"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="75" t="s">
         <v>36</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -1640,30 +1745,29 @@
       <c r="J7" s="35"/>
       <c r="K7" s="9"/>
       <c r="L7" s="35"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="O7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P7" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-    </row>
-    <row r="8" spans="1:24" ht="60.75">
-      <c r="A8" s="123" t="s">
+    </row>
+    <row r="8" spans="1:23" ht="45.75">
+      <c r="A8" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="121"/>
-      <c r="D8" s="122">
+      <c r="C8" s="83"/>
+      <c r="D8" s="82">
         <v>4250000</v>
       </c>
-      <c r="E8" s="112" t="s">
+      <c r="E8" s="75" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="9" t="s">
@@ -1681,28 +1785,27 @@
       <c r="J8" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="111">
+      <c r="K8" s="65">
         <v>0.3</v>
       </c>
-      <c r="L8" s="121"/>
+      <c r="L8" s="72"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
+      <c r="N8" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="O8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P8" s="9" t="s">
         <v>26</v>
       </c>
+      <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-    </row>
-    <row r="9" spans="1:24" ht="60.75">
-      <c r="A9" s="123"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="121"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="112" t="s">
+    </row>
+    <row r="9" spans="1:23" ht="45.75">
+      <c r="A9" s="97"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="75" t="s">
         <v>49</v>
       </c>
       <c r="F9" s="40" t="s">
@@ -1717,25 +1820,24 @@
       <c r="I9" s="9"/>
       <c r="J9" s="40"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="121"/>
+      <c r="L9" s="72"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
+      <c r="N9" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="O9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P9" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-    </row>
-    <row r="10" spans="1:24" ht="30.75">
-      <c r="A10" s="123"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="112" t="s">
+    </row>
+    <row r="10" spans="1:23" ht="30.75">
+      <c r="A10" s="97"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="75" t="s">
         <v>49</v>
       </c>
       <c r="F10" s="41" t="s">
@@ -1748,21 +1850,20 @@
       <c r="I10" s="9"/>
       <c r="J10" s="40"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="121"/>
+      <c r="L10" s="72"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-    </row>
-    <row r="11" spans="1:24" ht="60.75">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="112" t="s">
+    </row>
+    <row r="11" spans="1:23" ht="60.75">
+      <c r="A11" s="92"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="75" t="s">
         <v>52</v>
       </c>
       <c r="F11" s="9" t="s">
@@ -1777,25 +1878,24 @@
       <c r="I11" s="9"/>
       <c r="J11" s="40"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="121"/>
+      <c r="L11" s="72"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
+      <c r="N11" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="O11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P11" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-    </row>
-    <row r="12" spans="1:24" ht="75" customHeight="1">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="112" t="s">
+    </row>
+    <row r="12" spans="1:23" ht="75" customHeight="1">
+      <c r="A12" s="92"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="75" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="9" t="s">
@@ -1809,28 +1909,27 @@
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="40"/>
-      <c r="K12" s="111">
+      <c r="K12" s="65">
         <v>0.3</v>
       </c>
-      <c r="L12" s="121"/>
+      <c r="L12" s="72"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
+      <c r="N12" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="O12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P12" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-    </row>
-    <row r="13" spans="1:24" ht="91.5">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="112" t="s">
+    </row>
+    <row r="13" spans="1:23" ht="91.5">
+      <c r="A13" s="92"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="75" t="s">
         <v>31</v>
       </c>
       <c r="F13" s="9" t="s">
@@ -1842,28 +1941,27 @@
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="40"/>
-      <c r="K13" s="111">
+      <c r="K13" s="65">
         <v>0.3</v>
       </c>
-      <c r="L13" s="121"/>
+      <c r="L13" s="72"/>
       <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
+      <c r="N13" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="O13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P13" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-    </row>
-    <row r="14" spans="1:24" ht="90" customHeight="1">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="112" t="s">
+    </row>
+    <row r="14" spans="1:23" ht="90" customHeight="1">
+      <c r="A14" s="93"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="75" t="s">
         <v>56</v>
       </c>
       <c r="F14" s="9" t="s">
@@ -1877,34 +1975,33 @@
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="40"/>
-      <c r="K14" s="111">
+      <c r="K14" s="65">
         <v>0.1</v>
       </c>
-      <c r="L14" s="121"/>
+      <c r="L14" s="72"/>
       <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
+      <c r="N14" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="O14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P14" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-    </row>
-    <row r="15" spans="1:24" ht="60.75">
-      <c r="A15" s="115">
+    </row>
+    <row r="15" spans="1:23" ht="60.75">
+      <c r="A15" s="100">
         <v>125754</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="109">
+      <c r="C15" s="101"/>
+      <c r="D15" s="102">
         <v>55000</v>
       </c>
-      <c r="E15" s="112" t="s">
+      <c r="E15" s="66" t="s">
         <v>56</v>
       </c>
       <c r="F15" s="9" t="s">
@@ -1922,40 +2019,41 @@
       <c r="J15" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="K15" s="111">
+      <c r="K15" s="65">
         <v>0.5</v>
       </c>
       <c r="L15" s="40" t="s">
         <v>24</v>
       </c>
       <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
+      <c r="N15" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="O15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P15" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-    </row>
-    <row r="16" spans="1:24" ht="30" customHeight="1">
-      <c r="A16" s="123" t="s">
+    </row>
+    <row r="16" spans="1:23" ht="30" customHeight="1">
+      <c r="A16" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="122">
+      <c r="C16" s="148" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="82">
         <v>11182694</v>
       </c>
-      <c r="E16" s="116" t="s">
+      <c r="E16" s="98" t="s">
         <v>26</v>
       </c>
       <c r="F16" s="40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G16" s="9">
         <v>0</v>
@@ -1964,31 +2062,30 @@
         <v>4449727</v>
       </c>
       <c r="I16" s="35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J16" s="35" t="s">
         <v>48</v>
       </c>
       <c r="K16" s="9"/>
-      <c r="L16" s="121"/>
+      <c r="L16" s="72"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
+      <c r="N16" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="O16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P16" s="9" t="s">
         <v>26</v>
       </c>
+      <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-    </row>
-    <row r="17" spans="1:19" ht="60.75">
-      <c r="A17" s="123"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="116" t="s">
+    </row>
+    <row r="17" spans="1:18" ht="45.75">
+      <c r="A17" s="97"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="98" t="s">
         <v>49</v>
       </c>
       <c r="F17" s="40" t="s">
@@ -2003,62 +2100,60 @@
       <c r="I17" s="35"/>
       <c r="J17" s="35"/>
       <c r="K17" s="9"/>
-      <c r="L17" s="121"/>
+      <c r="L17" s="72"/>
       <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
+      <c r="N17" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="O17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P17" s="9" t="s">
         <v>26</v>
       </c>
+      <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-    </row>
-    <row r="18" spans="1:19" ht="60.75">
-      <c r="A18" s="123"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="116" t="s">
+    </row>
+    <row r="18" spans="1:18" ht="45.75">
+      <c r="A18" s="97"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="98" t="s">
         <v>49</v>
       </c>
       <c r="F18" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="117">
+      <c r="G18" s="69">
         <v>0</v>
       </c>
       <c r="H18" s="41"/>
       <c r="I18" s="35"/>
       <c r="J18" s="35"/>
       <c r="K18" s="9"/>
-      <c r="L18" s="121"/>
+      <c r="L18" s="72"/>
       <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
+      <c r="N18" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="O18" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P18" s="9" t="s">
         <v>26</v>
       </c>
+      <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-    </row>
-    <row r="19" spans="1:19" s="51" customFormat="1" ht="60.75">
-      <c r="A19" s="123"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="118" t="s">
-        <v>66</v>
+    </row>
+    <row r="19" spans="1:18" s="51" customFormat="1" ht="45.75">
+      <c r="A19" s="97"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="99" t="s">
+        <v>67</v>
       </c>
       <c r="F19" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" s="119">
+        <v>68</v>
+      </c>
+      <c r="G19" s="71">
         <v>0</v>
       </c>
       <c r="H19" s="49">
@@ -2066,32 +2161,31 @@
       </c>
       <c r="I19" s="35"/>
       <c r="J19" s="35"/>
-      <c r="K19" s="119"/>
-      <c r="L19" s="121"/>
-      <c r="M19" s="120"/>
-      <c r="N19" s="119"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="O19" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P19" s="9" t="s">
         <v>26</v>
       </c>
+      <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-    </row>
-    <row r="20" spans="1:19" s="51" customFormat="1" ht="60.75">
-      <c r="A20" s="123"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="118" t="s">
-        <v>68</v>
+    </row>
+    <row r="20" spans="1:18" s="51" customFormat="1" ht="45.75">
+      <c r="A20" s="97"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="99" t="s">
+        <v>69</v>
       </c>
       <c r="F20" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" s="119">
+        <v>70</v>
+      </c>
+      <c r="G20" s="71">
         <v>0</v>
       </c>
       <c r="H20" s="49">
@@ -2099,32 +2193,31 @@
       </c>
       <c r="I20" s="35"/>
       <c r="J20" s="35"/>
-      <c r="K20" s="119"/>
-      <c r="L20" s="121"/>
-      <c r="M20" s="120"/>
-      <c r="N20" s="119"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="O20" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P20" s="9" t="s">
         <v>26</v>
       </c>
+      <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-    </row>
-    <row r="21" spans="1:19" s="51" customFormat="1" ht="60.75">
-      <c r="A21" s="123"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="118" t="s">
+    </row>
+    <row r="21" spans="1:18" s="51" customFormat="1" ht="45.75">
+      <c r="A21" s="97"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="99" t="s">
         <v>20</v>
       </c>
       <c r="F21" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="119">
+        <v>71</v>
+      </c>
+      <c r="G21" s="71">
         <v>0</v>
       </c>
       <c r="H21" s="49">
@@ -2132,32 +2225,31 @@
       </c>
       <c r="I21" s="35"/>
       <c r="J21" s="35"/>
-      <c r="K21" s="119"/>
-      <c r="L21" s="121"/>
-      <c r="M21" s="120"/>
-      <c r="N21" s="119"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="O21" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P21" s="9" t="s">
         <v>26</v>
       </c>
+      <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-    </row>
-    <row r="22" spans="1:19" s="51" customFormat="1" ht="60.75">
-      <c r="A22" s="123"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="118" t="s">
-        <v>71</v>
+    </row>
+    <row r="22" spans="1:18" s="51" customFormat="1" ht="45.75">
+      <c r="A22" s="97"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="99" t="s">
+        <v>72</v>
       </c>
       <c r="F22" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="G22" s="119">
+        <v>73</v>
+      </c>
+      <c r="G22" s="71">
         <v>0</v>
       </c>
       <c r="H22" s="49">
@@ -2165,32 +2257,31 @@
       </c>
       <c r="I22" s="35"/>
       <c r="J22" s="35"/>
-      <c r="K22" s="119"/>
-      <c r="L22" s="121"/>
-      <c r="M22" s="120"/>
-      <c r="N22" s="119"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="O22" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P22" s="9" t="s">
         <v>26</v>
       </c>
+      <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-    </row>
-    <row r="23" spans="1:19" s="51" customFormat="1" ht="60.75">
-      <c r="A23" s="123"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="122"/>
-      <c r="E23" s="118" t="s">
+    </row>
+    <row r="23" spans="1:18" s="51" customFormat="1" ht="45.75">
+      <c r="A23" s="103"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="99" t="s">
         <v>36</v>
       </c>
       <c r="F23" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G23" s="119">
+        <v>74</v>
+      </c>
+      <c r="G23" s="71">
         <v>0</v>
       </c>
       <c r="H23" s="49">
@@ -2198,102 +2289,99 @@
       </c>
       <c r="I23" s="35"/>
       <c r="J23" s="35"/>
-      <c r="K23" s="119"/>
-      <c r="L23" s="121"/>
-      <c r="M23" s="120"/>
-      <c r="N23" s="119"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="O23" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P23" s="9" t="s">
         <v>26</v>
       </c>
+      <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-    </row>
-    <row r="24" spans="1:19" s="51" customFormat="1" ht="60.75">
-      <c r="A24" s="123" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="35" t="s">
+    </row>
+    <row r="24" spans="1:18" s="51" customFormat="1" ht="45.75">
+      <c r="A24" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="122">
+      <c r="B24" s="78" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="78"/>
+      <c r="D24" s="79">
         <v>6148000</v>
       </c>
-      <c r="E24" s="118" t="s">
+      <c r="E24" s="70" t="s">
         <v>20</v>
       </c>
       <c r="F24" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="G24" s="119">
+        <v>77</v>
+      </c>
+      <c r="G24" s="71">
         <v>0</v>
       </c>
       <c r="H24" s="49">
         <v>100</v>
       </c>
-      <c r="I24" s="119"/>
+      <c r="I24" s="71"/>
       <c r="J24" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="K24" s="119"/>
+        <v>78</v>
+      </c>
+      <c r="K24" s="71"/>
       <c r="L24" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="M24" s="120"/>
-      <c r="N24" s="119"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="O24" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P24" s="9" t="s">
         <v>26</v>
       </c>
+      <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-    </row>
-    <row r="25" spans="1:19" s="51" customFormat="1" ht="60.75">
-      <c r="A25" s="123"/>
+    </row>
+    <row r="25" spans="1:18" s="51" customFormat="1" ht="45.75">
+      <c r="A25" s="74"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
-      <c r="D25" s="122"/>
-      <c r="E25" s="118" t="s">
-        <v>71</v>
+      <c r="D25" s="73"/>
+      <c r="E25" s="70" t="s">
+        <v>72</v>
       </c>
       <c r="F25" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="G25" s="119">
+        <v>73</v>
+      </c>
+      <c r="G25" s="71">
         <v>0</v>
       </c>
       <c r="H25" s="49">
         <v>1000</v>
       </c>
-      <c r="I25" s="119"/>
+      <c r="I25" s="71"/>
       <c r="J25" s="35"/>
-      <c r="K25" s="119"/>
+      <c r="K25" s="71"/>
       <c r="L25" s="35"/>
-      <c r="M25" s="120"/>
-      <c r="N25" s="119"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="O25" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P25" s="9" t="s">
         <v>26</v>
       </c>
+      <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-    </row>
-    <row r="26" spans="1:19" ht="60.75">
-      <c r="A26" s="123"/>
+    </row>
+    <row r="26" spans="1:18" ht="45.75">
+      <c r="A26" s="74"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
-      <c r="D26" s="122"/>
-      <c r="E26" s="116" t="s">
+      <c r="D26" s="73"/>
+      <c r="E26" s="68" t="s">
         <v>49</v>
       </c>
       <c r="F26" s="40" t="s">
@@ -2309,26 +2397,25 @@
       <c r="J26" s="35"/>
       <c r="K26" s="9"/>
       <c r="L26" s="35"/>
-      <c r="M26" s="114"/>
-      <c r="N26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="O26" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P26" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-    </row>
-    <row r="27" spans="1:19" ht="60.75">
-      <c r="A27" s="123"/>
+    </row>
+    <row r="27" spans="1:18" ht="45.75">
+      <c r="A27" s="74"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
-      <c r="D27" s="122"/>
-      <c r="E27" s="116"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="68"/>
       <c r="F27" s="41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G27" s="9">
         <v>0</v>
@@ -2340,75 +2427,74 @@
       <c r="J27" s="35"/>
       <c r="K27" s="9"/>
       <c r="L27" s="35"/>
-      <c r="M27" s="114"/>
-      <c r="N27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="O27" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P27" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
       <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-    </row>
-    <row r="28" spans="1:19" s="51" customFormat="1" ht="60.75">
-      <c r="A28" s="123"/>
+    </row>
+    <row r="28" spans="1:18" s="51" customFormat="1" ht="45.75">
+      <c r="A28" s="74"/>
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
-      <c r="D28" s="122"/>
-      <c r="E28" s="118" t="s">
+      <c r="D28" s="73"/>
+      <c r="E28" s="70" t="s">
         <v>36</v>
       </c>
       <c r="F28" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G28" s="119">
+        <v>74</v>
+      </c>
+      <c r="G28" s="71">
         <v>0</v>
       </c>
       <c r="H28" s="49">
         <v>10000</v>
       </c>
-      <c r="I28" s="119"/>
+      <c r="I28" s="71"/>
       <c r="J28" s="35"/>
-      <c r="K28" s="119"/>
+      <c r="K28" s="71"/>
       <c r="L28" s="35"/>
-      <c r="M28" s="120"/>
-      <c r="N28" s="119"/>
+      <c r="M28" s="71"/>
+      <c r="N28" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="O28" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P28" s="9" t="s">
         <v>26</v>
       </c>
+      <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
       <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-    </row>
-    <row r="30" spans="1:19">
+    </row>
+    <row r="30" spans="1:18">
       <c r="B30" s="31"/>
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S28" xr:uid="{DAAB9C80-7A1B-4063-92E7-5EF52B20E471}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R28" xr:uid="{DAAB9C80-7A1B-4063-92E7-5EF52B20E471}">
       <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R28" xr:uid="{6F5BAC5B-A99A-4E0A-AEF4-19D7475FE8DB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q28" xr:uid="{6F5BAC5B-A99A-4E0A-AEF4-19D7475FE8DB}">
       <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q28" xr:uid="{330974BA-874B-4A57-BA48-69CDDAE39E8E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P28" xr:uid="{330974BA-874B-4A57-BA48-69CDDAE39E8E}">
       <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P28" xr:uid="{75AA1A77-F052-4712-B65A-7280F7690744}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O28" xr:uid="{75AA1A77-F052-4712-B65A-7280F7690744}">
       <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O28" xr:uid="{CA28DAF7-343D-423E-A292-3196906C7FE3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N28" xr:uid="{CA28DAF7-343D-423E-A292-3196906C7FE3}">
       <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{236AB2E8-53E8-4198-A50E-49F32CD7DDE7}"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{1C062E36-9485-4A01-836F-6A71BF34358F}"/>
+    <hyperlink ref="C16" r:id="rId2" xr:uid="{F39CF8CF-610C-44AF-959E-FB723A0F0E58}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2477,7 +2563,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="37" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>13</v>
@@ -2546,14 +2632,14 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="45.75">
-      <c r="A3" s="74">
+      <c r="A3" s="110">
         <v>122627</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="70">
+      <c r="C3" s="111"/>
+      <c r="D3" s="108">
         <v>922000</v>
       </c>
       <c r="E3" s="55" t="s">
@@ -2568,16 +2654,16 @@
       <c r="H3" s="9">
         <v>1500</v>
       </c>
-      <c r="I3" s="75" t="s">
+      <c r="I3" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="71" t="s">
+      <c r="J3" s="109" t="s">
         <v>30</v>
       </c>
       <c r="K3" s="45">
         <v>0.5</v>
       </c>
-      <c r="L3" s="66"/>
+      <c r="L3" s="118"/>
       <c r="M3" s="19"/>
       <c r="O3" t="s">
         <v>25</v>
@@ -2587,10 +2673,10 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="121.5">
-      <c r="A4" s="74"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="70"/>
+      <c r="A4" s="110"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="108"/>
       <c r="E4" s="55" t="s">
         <v>31</v>
       </c>
@@ -2603,12 +2689,12 @@
       <c r="H4" s="9">
         <v>1000</v>
       </c>
-      <c r="I4" s="76"/>
-      <c r="J4" s="71"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="109"/>
       <c r="K4" s="45">
         <v>0.5</v>
       </c>
-      <c r="L4" s="68"/>
+      <c r="L4" s="120"/>
       <c r="M4" s="19"/>
       <c r="O4" t="s">
         <v>25</v>
@@ -2618,16 +2704,16 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="90" customHeight="1">
-      <c r="A5" s="62">
+      <c r="A5" s="105">
         <v>6487</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="70">
+      <c r="D5" s="108">
         <v>3092009</v>
       </c>
       <c r="E5" s="55" t="s">
@@ -2643,13 +2729,13 @@
         <v>2800</v>
       </c>
       <c r="I5" s="7"/>
-      <c r="J5" s="71" t="s">
+      <c r="J5" s="109" t="s">
         <v>38</v>
       </c>
       <c r="K5" s="45">
         <v>0.5</v>
       </c>
-      <c r="L5" s="63" t="s">
+      <c r="L5" s="115" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="19"/>
@@ -2661,10 +2747,10 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="45" customHeight="1">
-      <c r="A6" s="62"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="70"/>
+      <c r="A6" s="105"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="108"/>
       <c r="E6" s="55" t="s">
         <v>40</v>
       </c>
@@ -2678,9 +2764,9 @@
         <v>531628</v>
       </c>
       <c r="I6" s="9"/>
-      <c r="J6" s="71"/>
+      <c r="J6" s="109"/>
       <c r="K6" s="7"/>
-      <c r="L6" s="64"/>
+      <c r="L6" s="116"/>
       <c r="M6" s="19"/>
       <c r="O6" t="s">
         <v>25</v>
@@ -2690,10 +2776,10 @@
       </c>
     </row>
     <row r="7" spans="1:24" s="51" customFormat="1" ht="90" customHeight="1">
-      <c r="A7" s="62"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="70"/>
+      <c r="A7" s="105"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="108"/>
       <c r="E7" s="55" t="s">
         <v>36</v>
       </c>
@@ -2707,9 +2793,9 @@
       <c r="I7" s="60">
         <v>106787</v>
       </c>
-      <c r="J7" s="71"/>
+      <c r="J7" s="109"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="65"/>
+      <c r="L7" s="117"/>
       <c r="M7" s="53"/>
       <c r="N7"/>
       <c r="O7" t="s">
@@ -2723,14 +2809,14 @@
       <c r="S7"/>
     </row>
     <row r="8" spans="1:24" ht="45.75">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="70">
+      <c r="C8" s="111"/>
+      <c r="D8" s="108">
         <v>4250000</v>
       </c>
       <c r="E8" s="55" t="s">
@@ -2748,13 +2834,13 @@
       <c r="I8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="73" t="s">
+      <c r="J8" s="107" t="s">
         <v>48</v>
       </c>
       <c r="K8" s="45">
         <v>0.3</v>
       </c>
-      <c r="L8" s="66"/>
+      <c r="L8" s="118"/>
       <c r="M8" s="19"/>
       <c r="O8" t="s">
         <v>25</v>
@@ -2764,10 +2850,10 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="30.75">
-      <c r="A9" s="69"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="70"/>
+      <c r="A9" s="114"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="108"/>
       <c r="E9" s="55" t="s">
         <v>49</v>
       </c>
@@ -2781,9 +2867,9 @@
         <v>4</v>
       </c>
       <c r="I9" s="9"/>
-      <c r="J9" s="73"/>
+      <c r="J9" s="107"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="67"/>
+      <c r="L9" s="119"/>
       <c r="M9" s="19"/>
       <c r="O9" t="s">
         <v>25</v>
@@ -2793,10 +2879,10 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="30.75">
-      <c r="A10" s="69"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="70"/>
+      <c r="A10" s="114"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="108"/>
       <c r="E10" s="55" t="s">
         <v>49</v>
       </c>
@@ -2808,16 +2894,16 @@
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="73"/>
+      <c r="J10" s="107"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="67"/>
+      <c r="L10" s="119"/>
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="1:24" ht="60.75">
-      <c r="A11" s="62"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="70"/>
+      <c r="A11" s="105"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="108"/>
       <c r="E11" s="55" t="s">
         <v>52</v>
       </c>
@@ -2831,9 +2917,9 @@
         <v>10</v>
       </c>
       <c r="I11" s="9"/>
-      <c r="J11" s="73"/>
+      <c r="J11" s="107"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="67"/>
+      <c r="L11" s="119"/>
       <c r="M11" s="19"/>
       <c r="O11" t="s">
         <v>25</v>
@@ -2843,10 +2929,10 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="75" customHeight="1">
-      <c r="A12" s="62"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="70"/>
+      <c r="A12" s="105"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="108"/>
       <c r="E12" s="55" t="s">
         <v>31</v>
       </c>
@@ -2860,11 +2946,11 @@
         <v>55000</v>
       </c>
       <c r="I12" s="9"/>
-      <c r="J12" s="73"/>
+      <c r="J12" s="107"/>
       <c r="K12" s="45">
         <v>0.3</v>
       </c>
-      <c r="L12" s="67"/>
+      <c r="L12" s="119"/>
       <c r="M12" s="19"/>
       <c r="O12" t="s">
         <v>25</v>
@@ -2874,10 +2960,10 @@
       </c>
     </row>
     <row r="13" spans="1:24" ht="91.5">
-      <c r="A13" s="62"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="70"/>
+      <c r="A13" s="105"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="108"/>
       <c r="E13" s="55" t="s">
         <v>31</v>
       </c>
@@ -2889,11 +2975,11 @@
         <v>5</v>
       </c>
       <c r="I13" s="7"/>
-      <c r="J13" s="73"/>
+      <c r="J13" s="107"/>
       <c r="K13" s="45">
         <v>0.3</v>
       </c>
-      <c r="L13" s="67"/>
+      <c r="L13" s="119"/>
       <c r="M13" s="19"/>
       <c r="O13" t="s">
         <v>25</v>
@@ -2903,10 +2989,10 @@
       </c>
     </row>
     <row r="14" spans="1:24" ht="90" customHeight="1">
-      <c r="A14" s="62"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="70"/>
+      <c r="A14" s="105"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="108"/>
       <c r="E14" s="55" t="s">
         <v>56</v>
       </c>
@@ -2920,11 +3006,11 @@
         <v>120</v>
       </c>
       <c r="I14" s="7"/>
-      <c r="J14" s="73"/>
+      <c r="J14" s="107"/>
       <c r="K14" s="45">
         <v>0.1</v>
       </c>
-      <c r="L14" s="68"/>
+      <c r="L14" s="120"/>
       <c r="M14" s="19"/>
       <c r="O14" t="s">
         <v>25</v>
@@ -2977,21 +3063,21 @@
       </c>
     </row>
     <row r="16" spans="1:24" ht="30" customHeight="1">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="70">
+      <c r="C16" s="105"/>
+      <c r="D16" s="108">
         <v>11182694</v>
       </c>
       <c r="E16" s="56" t="s">
         <v>26</v>
       </c>
       <c r="F16" s="40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G16" s="7">
         <v>0</v>
@@ -2999,14 +3085,14 @@
       <c r="H16" s="36">
         <v>4449727</v>
       </c>
-      <c r="I16" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="J16" s="62" t="s">
+      <c r="I16" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="105" t="s">
         <v>48</v>
       </c>
       <c r="K16" s="7"/>
-      <c r="L16" s="66"/>
+      <c r="L16" s="118"/>
       <c r="M16" s="19"/>
       <c r="O16" t="s">
         <v>25</v>
@@ -3016,10 +3102,10 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="30.75">
-      <c r="A17" s="69"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="70"/>
+      <c r="A17" s="114"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="108"/>
       <c r="E17" s="56" t="s">
         <v>49</v>
       </c>
@@ -3032,10 +3118,10 @@
       <c r="H17" s="36">
         <v>8</v>
       </c>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="105"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="67"/>
+      <c r="L17" s="119"/>
       <c r="M17" s="19"/>
       <c r="O17" t="s">
         <v>25</v>
@@ -3045,10 +3131,10 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="30.75">
-      <c r="A18" s="69"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="70"/>
+      <c r="A18" s="114"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="108"/>
       <c r="E18" s="56" t="s">
         <v>49</v>
       </c>
@@ -3059,10 +3145,10 @@
         <v>0</v>
       </c>
       <c r="H18" s="43"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="67"/>
+      <c r="L18" s="119"/>
       <c r="M18" s="19"/>
       <c r="O18" t="s">
         <v>25</v>
@@ -3072,15 +3158,15 @@
       </c>
     </row>
     <row r="19" spans="1:19" s="51" customFormat="1" ht="30.75">
-      <c r="A19" s="69"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="70"/>
+      <c r="A19" s="114"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="108"/>
       <c r="E19" s="57" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F19" s="49" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G19" s="50">
         <v>0</v>
@@ -3088,10 +3174,10 @@
       <c r="H19" s="48">
         <v>65</v>
       </c>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="105"/>
       <c r="K19" s="50"/>
-      <c r="L19" s="67"/>
+      <c r="L19" s="119"/>
       <c r="M19" s="52"/>
       <c r="O19" t="s">
         <v>25</v>
@@ -3104,15 +3190,15 @@
       <c r="S19"/>
     </row>
     <row r="20" spans="1:19" s="51" customFormat="1" ht="30.75">
-      <c r="A20" s="69"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="70"/>
+      <c r="A20" s="114"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="108"/>
       <c r="E20" s="57" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F20" s="49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G20" s="50">
         <v>0</v>
@@ -3120,10 +3206,10 @@
       <c r="H20" s="48">
         <v>42</v>
       </c>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="105"/>
       <c r="K20" s="50"/>
-      <c r="L20" s="67"/>
+      <c r="L20" s="119"/>
       <c r="M20" s="52"/>
       <c r="O20" t="s">
         <v>25</v>
@@ -3136,15 +3222,15 @@
       <c r="S20"/>
     </row>
     <row r="21" spans="1:19" s="51" customFormat="1" ht="30.75">
-      <c r="A21" s="69"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="70"/>
+      <c r="A21" s="114"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="108"/>
       <c r="E21" s="57" t="s">
         <v>20</v>
       </c>
       <c r="F21" s="49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G21" s="50">
         <v>0</v>
@@ -3152,10 +3238,10 @@
       <c r="H21" s="48">
         <v>17</v>
       </c>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="105"/>
       <c r="K21" s="50"/>
-      <c r="L21" s="67"/>
+      <c r="L21" s="119"/>
       <c r="M21" s="52"/>
       <c r="O21" t="s">
         <v>25</v>
@@ -3168,15 +3254,15 @@
       <c r="S21"/>
     </row>
     <row r="22" spans="1:19" s="51" customFormat="1" ht="30.75">
-      <c r="A22" s="69"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="70"/>
+      <c r="A22" s="114"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="108"/>
       <c r="E22" s="57" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F22" s="49" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G22" s="50">
         <v>0</v>
@@ -3184,10 +3270,10 @@
       <c r="H22" s="48">
         <v>113</v>
       </c>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="105"/>
       <c r="K22" s="50"/>
-      <c r="L22" s="67"/>
+      <c r="L22" s="119"/>
       <c r="M22" s="52"/>
       <c r="O22" t="s">
         <v>25</v>
@@ -3200,15 +3286,15 @@
       <c r="S22"/>
     </row>
     <row r="23" spans="1:19" s="51" customFormat="1" ht="30.75">
-      <c r="A23" s="69"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="70"/>
+      <c r="A23" s="114"/>
+      <c r="B23" s="105"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="108"/>
       <c r="E23" s="57" t="s">
         <v>36</v>
       </c>
       <c r="F23" s="49" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G23" s="50">
         <v>0</v>
@@ -3216,10 +3302,10 @@
       <c r="H23" s="48">
         <v>3001</v>
       </c>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="105"/>
       <c r="K23" s="50"/>
-      <c r="L23" s="68"/>
+      <c r="L23" s="120"/>
       <c r="M23" s="52"/>
       <c r="O23" t="s">
         <v>25</v>
@@ -3232,21 +3318,21 @@
       <c r="S23"/>
     </row>
     <row r="24" spans="1:19" s="51" customFormat="1" ht="30.75">
-      <c r="A24" s="69" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="62" t="s">
+      <c r="A24" s="114" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="62"/>
-      <c r="D24" s="70">
+      <c r="B24" s="105" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="105"/>
+      <c r="D24" s="108">
         <v>6148000</v>
       </c>
       <c r="E24" s="57" t="s">
         <v>20</v>
       </c>
       <c r="F24" s="49" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G24" s="50">
         <v>0</v>
@@ -3255,11 +3341,11 @@
         <v>100</v>
       </c>
       <c r="I24" s="50"/>
-      <c r="J24" s="62" t="s">
-        <v>77</v>
+      <c r="J24" s="105" t="s">
+        <v>78</v>
       </c>
       <c r="K24" s="50"/>
-      <c r="L24" s="63" t="s">
+      <c r="L24" s="115" t="s">
         <v>24</v>
       </c>
       <c r="M24" s="52"/>
@@ -3274,15 +3360,15 @@
       <c r="S24"/>
     </row>
     <row r="25" spans="1:19" s="51" customFormat="1" ht="30.75">
-      <c r="A25" s="69"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="70"/>
+      <c r="A25" s="114"/>
+      <c r="B25" s="105"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="108"/>
       <c r="E25" s="57" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F25" s="49" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G25" s="50">
         <v>0</v>
@@ -3291,9 +3377,9 @@
         <v>1000</v>
       </c>
       <c r="I25" s="50"/>
-      <c r="J25" s="62"/>
+      <c r="J25" s="105"/>
       <c r="K25" s="50"/>
-      <c r="L25" s="64"/>
+      <c r="L25" s="116"/>
       <c r="M25" s="52"/>
       <c r="O25" t="s">
         <v>25</v>
@@ -3306,10 +3392,10 @@
       <c r="S25"/>
     </row>
     <row r="26" spans="1:19" ht="30.75">
-      <c r="A26" s="69"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="70"/>
+      <c r="A26" s="114"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="108"/>
       <c r="E26" s="56" t="s">
         <v>49</v>
       </c>
@@ -3323,9 +3409,9 @@
         <v>2</v>
       </c>
       <c r="I26" s="7"/>
-      <c r="J26" s="62"/>
+      <c r="J26" s="105"/>
       <c r="K26" s="7"/>
-      <c r="L26" s="64"/>
+      <c r="L26" s="116"/>
       <c r="M26" s="53"/>
       <c r="O26" t="s">
         <v>25</v>
@@ -3335,13 +3421,13 @@
       </c>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="69"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="70"/>
+      <c r="A27" s="114"/>
+      <c r="B27" s="105"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="108"/>
       <c r="E27" s="56"/>
       <c r="F27" s="41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G27" s="7">
         <v>0</v>
@@ -3350,9 +3436,9 @@
         <v>0.4</v>
       </c>
       <c r="I27" s="7"/>
-      <c r="J27" s="62"/>
+      <c r="J27" s="105"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="64"/>
+      <c r="L27" s="116"/>
       <c r="M27" s="53"/>
       <c r="O27" t="s">
         <v>25</v>
@@ -3362,15 +3448,15 @@
       </c>
     </row>
     <row r="28" spans="1:19" s="51" customFormat="1" ht="30.75">
-      <c r="A28" s="69"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="70"/>
+      <c r="A28" s="114"/>
+      <c r="B28" s="105"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="108"/>
       <c r="E28" s="57" t="s">
         <v>36</v>
       </c>
       <c r="F28" s="49" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G28" s="50">
         <v>0</v>
@@ -3379,9 +3465,9 @@
         <v>10000</v>
       </c>
       <c r="I28" s="50"/>
-      <c r="J28" s="62"/>
+      <c r="J28" s="105"/>
       <c r="K28" s="50"/>
-      <c r="L28" s="65"/>
+      <c r="L28" s="117"/>
       <c r="M28" s="52"/>
       <c r="O28" t="s">
         <v>25</v>
@@ -3398,38 +3484,38 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="J16:J23"/>
+    <mergeCell ref="L24:L28"/>
+    <mergeCell ref="L16:L23"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="L8:L14"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="J24:J28"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="B8:B14"/>
+    <mergeCell ref="C8:C14"/>
+    <mergeCell ref="D8:D14"/>
+    <mergeCell ref="J8:J14"/>
+    <mergeCell ref="A16:A23"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="C16:C23"/>
+    <mergeCell ref="D16:D23"/>
+    <mergeCell ref="I16:I23"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="A16:A23"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="C16:C23"/>
-    <mergeCell ref="D16:D23"/>
-    <mergeCell ref="I16:I23"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="B8:B14"/>
-    <mergeCell ref="C8:C14"/>
-    <mergeCell ref="D8:D14"/>
-    <mergeCell ref="J8:J14"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="J24:J28"/>
-    <mergeCell ref="J16:J23"/>
-    <mergeCell ref="L24:L28"/>
-    <mergeCell ref="L16:L23"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="L8:L14"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="J5:J7"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{4508A1F8-96DE-41B3-8189-7C0C3128B039}"/>
@@ -3534,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>22</v>
@@ -3544,14 +3630,14 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="60">
-      <c r="A3" s="81">
+      <c r="A3" s="128">
         <v>122627</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="85">
+      <c r="C3" s="111"/>
+      <c r="D3" s="132">
         <v>922000</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -3564,20 +3650,20 @@
         <v>0</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="95" t="s">
+      <c r="J3" s="142" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="121.5">
-      <c r="A4" s="82"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="87"/>
+      <c r="A4" s="129"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="134"/>
       <c r="E4" s="7" t="s">
         <v>31</v>
       </c>
@@ -3588,24 +3674,24 @@
         <v>0</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="J4" s="95"/>
+        <v>83</v>
+      </c>
+      <c r="J4" s="142"/>
     </row>
     <row r="5" spans="1:14" ht="90" customHeight="1">
-      <c r="A5" s="63">
+      <c r="A5" s="115">
         <v>6487</v>
       </c>
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="92" t="s">
+      <c r="C5" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="85">
+      <c r="D5" s="132">
         <v>3092009</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -3618,62 +3704,62 @@
         <v>0</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I5" s="15"/>
-      <c r="J5" s="96" t="s">
+      <c r="J5" s="143" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="45" customHeight="1">
-      <c r="A6" s="64"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="86"/>
+      <c r="A6" s="116"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="133"/>
       <c r="E6" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G6" s="5">
         <v>0</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="143"/>
+    </row>
+    <row r="7" spans="1:14" ht="90" customHeight="1">
+      <c r="A7" s="117"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J6" s="96"/>
-    </row>
-    <row r="7" spans="1:14" ht="90" customHeight="1">
-      <c r="A7" s="65"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="F7" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G7" s="5">
         <v>0</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="J7" s="96"/>
+        <v>89</v>
+      </c>
+      <c r="J7" s="143"/>
     </row>
     <row r="8" spans="1:14" ht="45.75">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="85">
+      <c r="C8" s="118"/>
+      <c r="D8" s="132">
         <v>4250000</v>
       </c>
       <c r="E8" s="7" t="s">
@@ -3686,20 +3772,20 @@
         <v>0</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="97" t="s">
+      <c r="J8" s="124" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="30.75">
-      <c r="A9" s="84"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="86"/>
+      <c r="A9" s="131"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="133"/>
       <c r="E9" s="7" t="s">
         <v>49</v>
       </c>
@@ -3713,15 +3799,15 @@
         <v>4</v>
       </c>
       <c r="I9" s="11"/>
-      <c r="J9" s="97"/>
+      <c r="J9" s="124"/>
     </row>
     <row r="10" spans="1:14" ht="30.75">
-      <c r="A10" s="84"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="86"/>
+      <c r="A10" s="131"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="133"/>
       <c r="E10" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F10" s="33" t="s">
         <v>51</v>
@@ -3734,13 +3820,13 @@
         <v>6400</v>
       </c>
       <c r="I10" s="11"/>
-      <c r="J10" s="97"/>
+      <c r="J10" s="124"/>
     </row>
     <row r="11" spans="1:14" ht="60">
-      <c r="A11" s="64"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="86"/>
+      <c r="A11" s="116"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="133"/>
       <c r="E11" s="7" t="s">
         <v>52</v>
       </c>
@@ -3754,9 +3840,9 @@
         <v>10</v>
       </c>
       <c r="I11" s="11"/>
-      <c r="J11" s="97"/>
+      <c r="J11" s="124"/>
       <c r="L11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M11">
         <f>SUM(H9+H17+H26)</f>
@@ -3768,10 +3854,10 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="75">
-      <c r="A12" s="64"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="86"/>
+      <c r="A12" s="116"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="133"/>
       <c r="E12" s="7" t="s">
         <v>31</v>
       </c>
@@ -3782,12 +3868,12 @@
         <v>0</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I12" s="18"/>
-      <c r="J12" s="97"/>
+      <c r="J12" s="124"/>
       <c r="L12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M12">
         <f>SUM(H10+H18+H27)</f>
@@ -3795,28 +3881,28 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="75">
-      <c r="A13" s="64"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="86"/>
+      <c r="A13" s="116"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="133"/>
       <c r="E13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I13" s="19"/>
-      <c r="J13" s="97"/>
+      <c r="J13" s="124"/>
     </row>
     <row r="14" spans="1:14" ht="90">
-      <c r="A14" s="64"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="87"/>
+      <c r="A14" s="116"/>
+      <c r="B14" s="135"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="134"/>
       <c r="E14" s="13" t="s">
         <v>56</v>
       </c>
@@ -3827,10 +3913,10 @@
         <v>0</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I14" s="20"/>
-      <c r="J14" s="97"/>
+      <c r="J14" s="124"/>
     </row>
     <row r="15" spans="1:14" ht="60">
       <c r="A15" s="29">
@@ -3853,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I15" s="30" t="s">
         <v>60</v>
@@ -3863,21 +3949,21 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="30">
-      <c r="A16" s="100" t="s">
+      <c r="A16" s="121" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="98"/>
-      <c r="D16" s="99">
+      <c r="C16" s="123"/>
+      <c r="D16" s="122">
         <v>11182694</v>
       </c>
       <c r="E16" s="24" t="s">
         <v>26</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G16" s="23">
         <v>0</v>
@@ -3885,18 +3971,18 @@
       <c r="H16" s="24">
         <v>4449727</v>
       </c>
-      <c r="I16" s="78" t="s">
-        <v>65</v>
-      </c>
-      <c r="J16" s="78" t="s">
+      <c r="I16" s="125" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="125" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30.75">
-      <c r="A17" s="100"/>
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="99"/>
+      <c r="A17" s="121"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="122"/>
       <c r="E17" s="24" t="s">
         <v>49</v>
       </c>
@@ -3909,16 +3995,16 @@
       <c r="H17" s="24">
         <v>8</v>
       </c>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
+      <c r="I17" s="126"/>
+      <c r="J17" s="126"/>
     </row>
     <row r="18" spans="1:10" ht="30.75">
-      <c r="A18" s="100"/>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="99"/>
+      <c r="A18" s="121"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="122"/>
       <c r="E18" s="32" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F18" s="33" t="s">
         <v>51</v>
@@ -3930,19 +4016,19 @@
         <f>H17*1600</f>
         <v>12800</v>
       </c>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
+      <c r="I18" s="126"/>
+      <c r="J18" s="126"/>
     </row>
     <row r="19" spans="1:10" ht="30.75">
-      <c r="A19" s="100"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="99"/>
+      <c r="A19" s="121"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="122"/>
       <c r="E19" s="24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G19" s="23">
         <v>0</v>
@@ -3950,19 +4036,19 @@
       <c r="H19" s="24">
         <v>65</v>
       </c>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
+      <c r="I19" s="126"/>
+      <c r="J19" s="126"/>
     </row>
     <row r="20" spans="1:10" ht="30">
-      <c r="A20" s="100"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="99"/>
+      <c r="A20" s="121"/>
+      <c r="B20" s="123"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="122"/>
       <c r="E20" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G20" s="23">
         <v>0</v>
@@ -3970,19 +4056,19 @@
       <c r="H20" s="24">
         <v>42</v>
       </c>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
+      <c r="I20" s="126"/>
+      <c r="J20" s="126"/>
     </row>
     <row r="21" spans="1:10" ht="30">
-      <c r="A21" s="100"/>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="99"/>
+      <c r="A21" s="121"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="122"/>
       <c r="E21" s="24" t="s">
         <v>20</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G21" s="23">
         <v>0</v>
@@ -3990,19 +4076,19 @@
       <c r="H21" s="24">
         <v>17</v>
       </c>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
+      <c r="I21" s="126"/>
+      <c r="J21" s="126"/>
     </row>
     <row r="22" spans="1:10" ht="30">
-      <c r="A22" s="100"/>
-      <c r="B22" s="98"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="99"/>
+      <c r="A22" s="121"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="122"/>
       <c r="E22" s="24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G22" s="23">
         <v>0</v>
@@ -4010,19 +4096,19 @@
       <c r="H22" s="24">
         <v>113</v>
       </c>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="126"/>
     </row>
     <row r="23" spans="1:10" ht="30">
-      <c r="A23" s="100"/>
-      <c r="B23" s="98"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="99"/>
+      <c r="A23" s="121"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="122"/>
       <c r="E23" s="24" t="s">
         <v>36</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G23" s="23">
         <v>0</v>
@@ -4030,25 +4116,25 @@
       <c r="H23" s="24">
         <v>3001</v>
       </c>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
+      <c r="I23" s="127"/>
+      <c r="J23" s="127"/>
     </row>
     <row r="24" spans="1:10" ht="30">
-      <c r="A24" s="100" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="98" t="s">
+      <c r="A24" s="121" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="98"/>
-      <c r="D24" s="99">
+      <c r="B24" s="123" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="123"/>
+      <c r="D24" s="122">
         <v>6148000</v>
       </c>
       <c r="E24" s="24" t="s">
         <v>20</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G24" s="23">
         <v>0</v>
@@ -4057,20 +4143,20 @@
         <v>100</v>
       </c>
       <c r="I24" s="23"/>
-      <c r="J24" s="78" t="s">
-        <v>77</v>
+      <c r="J24" s="125" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="30">
-      <c r="A25" s="100"/>
-      <c r="B25" s="98"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="99"/>
+      <c r="A25" s="121"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="122"/>
       <c r="E25" s="24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G25" s="23">
         <v>0</v>
@@ -4079,13 +4165,13 @@
         <v>2</v>
       </c>
       <c r="I25" s="23"/>
-      <c r="J25" s="79"/>
+      <c r="J25" s="126"/>
     </row>
     <row r="26" spans="1:10" ht="30">
-      <c r="A26" s="100"/>
-      <c r="B26" s="98"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="99"/>
+      <c r="A26" s="121"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="122"/>
       <c r="E26" s="24" t="s">
         <v>49</v>
       </c>
@@ -4099,15 +4185,15 @@
         <v>2</v>
       </c>
       <c r="I26" s="23"/>
-      <c r="J26" s="79"/>
+      <c r="J26" s="126"/>
     </row>
     <row r="27" spans="1:10" ht="30.75">
-      <c r="A27" s="100"/>
-      <c r="B27" s="98"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="99"/>
+      <c r="A27" s="121"/>
+      <c r="B27" s="123"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="122"/>
       <c r="E27" s="24" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F27" s="33" t="s">
         <v>51</v>
@@ -4120,18 +4206,18 @@
         <v>3200</v>
       </c>
       <c r="I27" s="23"/>
-      <c r="J27" s="79"/>
+      <c r="J27" s="126"/>
     </row>
     <row r="28" spans="1:10" ht="30">
-      <c r="A28" s="100"/>
-      <c r="B28" s="98"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="99"/>
+      <c r="A28" s="121"/>
+      <c r="B28" s="123"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="122"/>
       <c r="E28" s="24" t="s">
         <v>36</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G28" s="23">
         <v>0</v>
@@ -4140,7 +4226,7 @@
         <v>10000</v>
       </c>
       <c r="I28" s="23"/>
-      <c r="J28" s="80"/>
+      <c r="J28" s="127"/>
     </row>
     <row r="30" spans="1:10">
       <c r="B30" s="31"/>
@@ -4153,16 +4239,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A16:A23"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="J8:J14"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="C16:C23"/>
-    <mergeCell ref="D16:D23"/>
-    <mergeCell ref="J16:J23"/>
     <mergeCell ref="J24:J28"/>
     <mergeCell ref="I16:I23"/>
     <mergeCell ref="A3:A4"/>
@@ -4179,6 +4255,16 @@
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="J5:J7"/>
+    <mergeCell ref="J8:J14"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="C16:C23"/>
+    <mergeCell ref="D16:D23"/>
+    <mergeCell ref="J16:J23"/>
+    <mergeCell ref="A16:A23"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -4214,160 +4300,160 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="101" t="s">
-        <v>98</v>
+      <c r="A2" s="144" t="s">
+        <v>100</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="101"/>
+      <c r="A3" s="144"/>
       <c r="B3" t="s">
         <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="101"/>
+      <c r="A4" s="144"/>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="102" t="s">
-        <v>103</v>
+      <c r="A5" s="145" t="s">
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="102"/>
+      <c r="A6" s="145"/>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="102"/>
+      <c r="A7" s="145"/>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="102"/>
+      <c r="A8" s="145"/>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="102"/>
+      <c r="A9" s="145"/>
       <c r="B9" t="s">
         <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="103" t="s">
-        <v>109</v>
+      <c r="A10" s="146" t="s">
+        <v>111</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="103"/>
+      <c r="A11" s="146"/>
       <c r="B11" t="s">
         <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="104" t="s">
-        <v>113</v>
+      <c r="A12" s="147" t="s">
+        <v>115</v>
       </c>
       <c r="B12" t="s">
         <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="104"/>
+      <c r="A13" s="147"/>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="104"/>
+      <c r="A14" s="147"/>
       <c r="B14" t="s">
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4391,29 +4477,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
-      <UserInfo>
-        <DisplayName>Mamunur Rashid</DisplayName>
-        <AccountId>1909</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Mohammed Faez issa Al-Attar</DisplayName>
-        <AccountId>1316</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -4662,14 +4725,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
+      <UserInfo>
+        <DisplayName>Mamunur Rashid</DisplayName>
+        <AccountId>1909</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Mohammed Faez issa Al-Attar</DisplayName>
+        <AccountId>1316</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23B2F36C-ED54-4CE9-938D-170704522F69}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D725300-A553-47A2-B3D8-21DC5742429F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{749CB1BA-1022-4E25-B9B0-E9E22067111A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{749CB1BA-1022-4E25-B9B0-E9E22067111A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D725300-A553-47A2-B3D8-21DC5742429F}"/>
 </file>